--- a/latex/protokol-comparison.xlsx
+++ b/latex/protokol-comparison.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004cnad\skola\dp\latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1F1CF-FFAD-4712-8317-BFBE30954FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6180EA-6BB0-4A2A-825C-7B9ED8369EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{3719F964-D990-4EFF-8ECE-8AAB73ACCB37}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3719F964-D990-4EFF-8ECE-8AAB73ACCB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$F$22</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>Harmony</t>
   </si>
@@ -257,13 +258,160 @@
   </si>
   <si>
     <t>nie je možné vytvoriť alternatívny dlhší reťazec</t>
+  </si>
+  <si>
+    <t>Simulátor</t>
+  </si>
+  <si>
+    <t>SimBlock</t>
+  </si>
+  <si>
+    <t>BlockSim</t>
+  </si>
+  <si>
+    <t>Wittgenstein</t>
+  </si>
+  <si>
+    <t>Simulácia útočiacich uzlov</t>
+  </si>
+  <si>
+    <t>Bitcoin
+Simulator</t>
+  </si>
+  <si>
+    <t>Proof-of-Work</t>
+  </si>
+  <si>
+    <t>Proof-of-Stake</t>
+  </si>
+  <si>
+    <t>Veľké siete (&gt;1000 uzlov)</t>
+  </si>
+  <si>
+    <t>Geografická distribúcia uzlov</t>
+  </si>
+  <si>
+    <t>Bandwith</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Veľkosť transakcie</t>
+  </si>
+  <si>
+    <t>Generovanie transakcií</t>
+  </si>
+  <si>
+    <t>Interval pre distribúciu bloku</t>
+  </si>
+  <si>
+    <t>Programovací jazyk</t>
+  </si>
+  <si>
+    <t>Vytvorenie projektu</t>
+  </si>
+  <si>
+    <t>Posledná zmena v repozitári</t>
+  </si>
+  <si>
+    <t>Podporované protokoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>06/2019</t>
+  </si>
+  <si>
+    <t>02/2021</t>
+  </si>
+  <si>
+    <t>04/2016</t>
+  </si>
+  <si>
+    <t>10/2016</t>
+  </si>
+  <si>
+    <t>04/2019</t>
+  </si>
+  <si>
+    <t>05/2021</t>
+  </si>
+  <si>
+    <t>10/2018</t>
+  </si>
+  <si>
+    <t>01/2020</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Dogecoin</t>
+  </si>
+  <si>
+    <t>Litecoin</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>CasperIMD</t>
+  </si>
+  <si>
+    <t>Dfinity</t>
+  </si>
+  <si>
+    <t>Handel</t>
+  </si>
+  <si>
+    <t>Konsenzus
+vrstva</t>
+  </si>
+  <si>
+    <t>Dátová
+vrstva</t>
+  </si>
+  <si>
+    <t>Sieťová
+vrstva</t>
+  </si>
+  <si>
+    <t>Iné
+vlastnosti</t>
+  </si>
+  <si>
+    <t>Proof-of-Work metriky</t>
+  </si>
+  <si>
+    <t>Proof-of-Stake metriky</t>
+  </si>
+  <si>
+    <t>Througput (TPS)</t>
+  </si>
+  <si>
+    <t>Throughput (bytes)</t>
+  </si>
+  <si>
+    <t>Výstup
+simulácie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +452,27 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -325,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -543,11 +712,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,53 +805,125 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,8 +1244,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,8 +1258,8 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1272,8 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1018,7 +1288,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1036,7 +1306,7 @@
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1052,7 +1322,7 @@
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="10" t="s">
         <v>48</v>
       </c>
@@ -1068,7 +1338,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="27"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1354,7 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1102,7 +1372,7 @@
     </row>
     <row r="8" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1389,7 @@
     </row>
     <row r="9" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1136,7 +1406,7 @@
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1422,7 @@
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
@@ -1168,7 +1438,7 @@
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1186,7 +1456,7 @@
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1202,8 +1472,8 @@
     </row>
     <row r="14" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1212,14 +1482,14 @@
       <c r="E14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="24" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1237,7 +1507,7 @@
     </row>
     <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1523,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
@@ -1269,7 +1539,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="10" t="s">
         <v>59</v>
       </c>
@@ -1285,7 +1555,7 @@
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1301,7 +1571,7 @@
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="10" t="s">
         <v>62</v>
       </c>
@@ -1317,8 +1587,8 @@
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -1333,8 +1603,8 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -1369,4 +1639,494 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384AFB3A-DB13-4EDC-8805-1775C25FE5CC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="38" t="str">
+        <f t="shared" ref="C3:F3" si="0">CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="D3" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>ü</v>
+      </c>
+      <c r="E3" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>ü</v>
+      </c>
+      <c r="F3" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="D4" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="E4" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="F4" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="39" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="D5" s="39" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="E5" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="F5" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="39" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="D6" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="E6" s="39" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="F6" s="39" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="40" t="str">
+        <f t="shared" ref="C7:F16" si="1">CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="D7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="60" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="D8" s="60" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+      <c r="E8" s="60" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="F8" s="60" t="str">
+        <f>CHAR(252)</f>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="D9" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E9" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F9" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="D10" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E10" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F10" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="D11" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E11" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F11" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="D12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="D13" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="E13" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+      <c r="F13" s="60" t="str">
+        <f>CHAR(251)</f>
+        <v>ű</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="51" t="str">
+        <f t="shared" ref="C14:F16" si="2">CHAR(251)</f>
+        <v>ű</v>
+      </c>
+      <c r="D14" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="E14" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="F14" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="D15" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="E15" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="F15" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="D16" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="E16" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>ű</v>
+      </c>
+      <c r="F16" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="C21" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="C22" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>